--- a/ESP32 Pin Map.xlsx
+++ b/ESP32 Pin Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cam/Documents/fLoRa/flora-hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF44818F-B864-1F42-B41B-D64FC4D72E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF8724A-0B82-AC48-B1DE-6C8606BF517C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="19540" xr2:uid="{D255CDA6-4105-2946-ACF7-0FA81DA6DDD2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
   <si>
     <t>U0TXD</t>
   </si>
@@ -225,6 +225,30 @@
   </si>
   <si>
     <t>Through voltage divider for Appropriate ADC Range</t>
+  </si>
+  <si>
+    <t>SPI CLK</t>
+  </si>
+  <si>
+    <t>SPI MISO</t>
+  </si>
+  <si>
+    <t>SPI MOSI</t>
+  </si>
+  <si>
+    <t>SPI CS_1</t>
+  </si>
+  <si>
+    <t>SPI CS_2</t>
+  </si>
+  <si>
+    <t>UNSURE of this pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI Chip select for SD Card </t>
+  </si>
+  <si>
+    <t>SPI Chip select for LoRa Module</t>
   </si>
 </sst>
 </file>
@@ -665,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F187AB05-4549-AE40-817D-2220DE5E2CC0}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -823,7 +847,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -836,10 +860,14 @@
       <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -852,8 +880,12 @@
       <c r="D11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -884,8 +916,12 @@
       <c r="D13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -916,7 +952,9 @@
       <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -932,8 +970,12 @@
       <c r="D16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">

--- a/ESP32 Pin Map.xlsx
+++ b/ESP32 Pin Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cam/Documents/fLoRa/flora-hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF8724A-0B82-AC48-B1DE-6C8606BF517C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44959A08-930E-3849-9FEA-882A186E53C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="19540" xr2:uid="{D255CDA6-4105-2946-ACF7-0FA81DA6DDD2}"/>
   </bookViews>
@@ -341,9 +341,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -352,6 +349,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F187AB05-4549-AE40-817D-2220DE5E2CC0}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -702,10 +702,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -720,10 +720,10 @@
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -740,10 +740,10 @@
       <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -760,10 +760,10 @@
       <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -780,10 +780,10 @@
       <c r="D6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -800,10 +800,10 @@
       <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -820,10 +820,10 @@
       <c r="D8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -840,10 +840,10 @@
       <c r="D9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -860,10 +860,10 @@
       <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -880,10 +880,10 @@
       <c r="D11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -900,8 +900,8 @@
       <c r="D12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -916,10 +916,10 @@
       <c r="D13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -936,8 +936,8 @@
       <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -952,10 +952,10 @@
       <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -970,10 +970,10 @@
       <c r="D16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -990,10 +990,10 @@
       <c r="D17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1010,10 +1010,10 @@
       <c r="D18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1030,8 +1030,8 @@
       <c r="D19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -1046,8 +1046,8 @@
       <c r="D20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -1062,10 +1062,10 @@
       <c r="D21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1082,10 +1082,10 @@
       <c r="D22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>53</v>
       </c>
     </row>
